--- a/KOMPEGE/tests/demo/27_A_17882.xlsx
+++ b/KOMPEGE/tests/demo/27_A_17882.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\PycharmProjects\EGEtasks\KOMPEGE\tests\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E9F1AF0-5088-49ED-A60C-9AC1827D1FE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EF5059-8DBF-4CD5-AF41-22CFD6792040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12150" yWindow="1515" windowWidth="33825" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -99,6 +99,1477 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>-0.33272512019483069</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.45433257692672258</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.6873170750307438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.27692441200564488</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.53072083709650242</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.89940852009431449</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.66901141748367121</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.63009905035483427</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.37561574260887953</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.21505419048813845</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.5968815856460217</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.94211072710770405</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.7735935118634838</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5580392624847228</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.2181357428929296</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.0190880931983881</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6694541582223072E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.87735078266885314</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.6310610852448209</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.5966245192075503</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.13575889263494423</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.48724974441240532</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3837388584609922E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.93743301216562991</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.35249085338194375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.46227876066466012</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.89496079962875941</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.50269719899244336</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.3299217892593092E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.21509126055984007</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.3188268268260179</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.81579755440860957</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.7489748620077714</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.788519350270922</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.2110245597878135E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.0259699097466466</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.6409048963024704</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5951809844628295E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.85981173951255263</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.9277537086501999E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.4113932677115533</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.4113932677115533</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.4687574925338869</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.553368424157517</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.598126819114988</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.6237410523374796</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.6481803576999321</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.6544946184207487</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.6547091772177671</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.754530046677317</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.8088345136100505</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.944008368053765</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.9620937057282197</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.969705415873128</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.9789187703443791</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.0425762268663714</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.052167510214395</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.0903142311603107</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.1083236825567155</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.1170560433356358</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.2551646032193151</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.2799720725635861</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.2816472633359464</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.2850270932423964</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.3979870717405718</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.4234784032018917</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.6387673191315062</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.6545232708539723</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.7623436509986035</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.7728095557539998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.7786043720449438</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.7910680483284853</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.7914561643473284</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.7924116827483716</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.804918433706364</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.8232117978427622</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.8541736404604778</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.9751302744234844</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.9287596873184709</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.246465259975968</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.6643260184515114</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.3207396501292568</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.3551823985645894</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.8822990863984579</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.6783632901900774</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.6322323877359031</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.4040568771807886</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.6695883663911277</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.9005558334303241</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.3922624153374161</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.0146376850817544</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.6721348662602193</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.9276788890313403</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.1533601962474336</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.0802612749867153</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.8229580570624386</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$B$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>1.7286976051060217</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77418686211015464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8318107339950505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5042912342245844</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3171905030727373</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1323191549132825</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0253605230566953</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85794261924112769</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6163215561205018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5483557202695053</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1735767104763211</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.33409847665633885</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0530085444675619</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2232708907396086</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.68718015329448479</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.20263912192310451</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.42565988512825248</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.854502332585187</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4017843586706702</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1006073880474414</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.3307948473207709</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9869076444024376</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.17934759914754306</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.6070142698562639</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.23759188952672883</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.7049591825054637</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.49840792930740596</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.1116980758394623</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.6114612447572885</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.37590282208379078</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.35942605639083469</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0755585533783103</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2792926549248875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.9783426374728315</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.6099038882075254E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.17324678719103503</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.23444609583310716</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.4482666799212556</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.20991269540080393</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.8420841063516145</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.7989049638511148</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.0692796907903936</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.485153988910521</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.255722031936207</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.2765705054556795</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.6388567859368353</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.6450871255052943</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.9827707724804382</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.8026239690227697</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.8885332662403682</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.8361076329171713</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.7698958631435326</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.9012014092851128</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.5849991563835788</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.4411112663412</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.7095360135622961</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.4947094192562642</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.8282215690111632</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.7716671987708303</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.1183074265280526</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.2190253187927693</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.8669261202964931</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.8558519699910461</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.3988375547915282</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.0720544397849912</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.065475549920281</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.0420077889604116</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.4177772873357677</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.7911806767623926</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.2385480068487178</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.6311437259770933</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.2069349551543471</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.8615063837997221</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.4009968550588243</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.0407157661337507</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.4261197039471796</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.5531916378178154</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.6406725401562166</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.8612058518227981</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.1149651203127773</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.1593226909029228</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.6547783507923048</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.5027952576889709</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.6173317037320594</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.8288247087428795</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.5539036030883677</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.8135102895465955</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.7055644565959147</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.5035272884874153</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.2320191126690903</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.0425781322885843</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.4890974006191549</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.4641380065629201</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.4061431164882072</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.2626422241783004</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.9404173325443015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3E19-4D36-A685-863E4820028B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="512220736"/>
+        <c:axId val="512219488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="512220736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512219488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="512219488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="512220736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>490537</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A758ADE-8E7F-43A0-927A-9FFAF53372DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -367,7 +1838,7 @@
   <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,5 +2625,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>